--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3686.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3686.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.285726386740645</v>
+        <v>3.983274459838867</v>
       </c>
       <c r="B1">
-        <v>2.776190239429997</v>
+        <v>4.185163974761963</v>
       </c>
       <c r="C1">
-        <v>8.393331410847019</v>
+        <v>2.933164834976196</v>
       </c>
       <c r="D1">
-        <v>2.048312010122725</v>
+        <v>2.332669496536255</v>
       </c>
       <c r="E1">
-        <v>1.103991650720837</v>
+        <v>1.936059236526489</v>
       </c>
     </row>
   </sheetData>
